--- a/Salesforcepackage.xlsx
+++ b/Salesforcepackage.xlsx
@@ -52,7 +52,7 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>LogIn_01</x:t>
+    <x:t>Salesforce Application</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -97,16 +97,16 @@
     <x:t>User should be able to click on Login button</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Application_Page_01</x:t>
+    <x:t>6</x:t>
   </x:si>
   <x:si>
     <x:t>Verify that user is able to click on Select application</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to click on Select application</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
   </x:si>
   <x:si>
     <x:t>verify that user able to click on logout button</x:t>
@@ -510,7 +510,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="21.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="22.550625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
@@ -657,23 +657,19 @@
       <x:c r="K6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:11">
-      <x:c r="A7" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -686,7 +682,7 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>31</x:v>
